--- a/data_pulling/team_game_logs_1819/team_game_log_TOR.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_TOR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -307,6 +307,9 @@
     <t>BRO</t>
   </si>
   <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>2018-10-17T23:30:00.000Z</t>
   </si>
   <si>
@@ -386,6 +389,12 @@
   </si>
   <si>
     <t>2018-12-08T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T23:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-12T03:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -743,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV28"/>
+  <dimension ref="A1:BV30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,7 +993,7 @@
         <v>47577</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1208,7 +1217,7 @@
         <v>47588</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1432,7 +1441,7 @@
         <v>47596</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1656,7 +1665,7 @@
         <v>47610</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1880,7 +1889,7 @@
         <v>47624</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -2104,7 +2113,7 @@
         <v>47638</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2328,7 +2337,7 @@
         <v>47661</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -2552,7 +2561,7 @@
         <v>47669</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2776,7 +2785,7 @@
         <v>47692</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3000,7 +3009,7 @@
         <v>47708</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -3224,7 +3233,7 @@
         <v>47715</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3448,7 +3457,7 @@
         <v>47730</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -3672,7 +3681,7 @@
         <v>47743</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -3896,7 +3905,7 @@
         <v>47761</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -4120,7 +4129,7 @@
         <v>47775</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4344,7 +4353,7 @@
         <v>47785</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -4568,7 +4577,7 @@
         <v>47799</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4792,7 +4801,7 @@
         <v>47817</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -5016,7 +5025,7 @@
         <v>47823</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5240,7 +5249,7 @@
         <v>47840</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -5464,7 +5473,7 @@
         <v>47859</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -5688,7 +5697,7 @@
         <v>47872</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -5912,7 +5921,7 @@
         <v>47885</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -6136,7 +6145,7 @@
         <v>47902</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -6360,7 +6369,7 @@
         <v>47916</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -6584,7 +6593,7 @@
         <v>47928</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -6808,7 +6817,7 @@
         <v>47940</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -7015,6 +7024,454 @@
         <v>75</v>
       </c>
       <c r="BV28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>47957</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>104</v>
+      </c>
+      <c r="K29">
+        <v>104</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>24</v>
+      </c>
+      <c r="S29">
+        <v>24</v>
+      </c>
+      <c r="T29">
+        <v>48</v>
+      </c>
+      <c r="U29">
+        <v>44</v>
+      </c>
+      <c r="V29">
+        <v>44</v>
+      </c>
+      <c r="W29">
+        <v>15</v>
+      </c>
+      <c r="X29">
+        <v>15</v>
+      </c>
+      <c r="Y29">
+        <v>34.1</v>
+      </c>
+      <c r="Z29">
+        <v>94</v>
+      </c>
+      <c r="AA29">
+        <v>94</v>
+      </c>
+      <c r="AB29">
+        <v>39</v>
+      </c>
+      <c r="AC29">
+        <v>39</v>
+      </c>
+      <c r="AD29">
+        <v>41.5</v>
+      </c>
+      <c r="AE29">
+        <v>7</v>
+      </c>
+      <c r="AF29">
+        <v>7</v>
+      </c>
+      <c r="AG29">
+        <v>6</v>
+      </c>
+      <c r="AH29">
+        <v>6</v>
+      </c>
+      <c r="AI29">
+        <v>85.7</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>21</v>
+      </c>
+      <c r="AT29">
+        <v>13</v>
+      </c>
+      <c r="AU29">
+        <v>13</v>
+      </c>
+      <c r="AV29">
+        <v>21</v>
+      </c>
+      <c r="AW29">
+        <v>21</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>22</v>
+      </c>
+      <c r="BB29">
+        <v>13</v>
+      </c>
+      <c r="BC29">
+        <v>13</v>
+      </c>
+      <c r="BD29">
+        <v>22</v>
+      </c>
+      <c r="BE29">
+        <v>-5</v>
+      </c>
+      <c r="BF29">
+        <v>-5</v>
+      </c>
+      <c r="BG29">
+        <v>24</v>
+      </c>
+      <c r="BH29">
+        <v>24</v>
+      </c>
+      <c r="BI29">
+        <v>99</v>
+      </c>
+      <c r="BJ29">
+        <v>99</v>
+      </c>
+      <c r="BK29">
+        <v>34</v>
+      </c>
+      <c r="BL29">
+        <v>34</v>
+      </c>
+      <c r="BM29">
+        <v>11</v>
+      </c>
+      <c r="BN29">
+        <v>11</v>
+      </c>
+      <c r="BO29">
+        <v>45</v>
+      </c>
+      <c r="BP29">
+        <v>45</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>47973</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>99</v>
+      </c>
+      <c r="K30">
+        <v>99</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>67</v>
+      </c>
+      <c r="Q30">
+        <v>67</v>
+      </c>
+      <c r="R30">
+        <v>36</v>
+      </c>
+      <c r="S30">
+        <v>36</v>
+      </c>
+      <c r="T30">
+        <v>53.7</v>
+      </c>
+      <c r="U30">
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <v>29</v>
+      </c>
+      <c r="W30">
+        <v>14</v>
+      </c>
+      <c r="X30">
+        <v>14</v>
+      </c>
+      <c r="Y30">
+        <v>48.3</v>
+      </c>
+      <c r="Z30">
+        <v>96</v>
+      </c>
+      <c r="AA30">
+        <v>96</v>
+      </c>
+      <c r="AB30">
+        <v>50</v>
+      </c>
+      <c r="AC30">
+        <v>50</v>
+      </c>
+      <c r="AD30">
+        <v>52.1</v>
+      </c>
+      <c r="AE30">
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <v>12</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>9</v>
+      </c>
+      <c r="AI30">
+        <v>75</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>22</v>
+      </c>
+      <c r="AT30">
+        <v>16</v>
+      </c>
+      <c r="AU30">
+        <v>16</v>
+      </c>
+      <c r="AV30">
+        <v>22</v>
+      </c>
+      <c r="AW30">
+        <v>22</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>23</v>
+      </c>
+      <c r="BB30">
+        <v>16</v>
+      </c>
+      <c r="BC30">
+        <v>16</v>
+      </c>
+      <c r="BD30">
+        <v>23</v>
+      </c>
+      <c r="BE30">
+        <v>24</v>
+      </c>
+      <c r="BF30">
+        <v>24</v>
+      </c>
+      <c r="BG30">
+        <v>34</v>
+      </c>
+      <c r="BH30">
+        <v>34</v>
+      </c>
+      <c r="BI30">
+        <v>123</v>
+      </c>
+      <c r="BJ30">
+        <v>123</v>
+      </c>
+      <c r="BK30">
+        <v>33</v>
+      </c>
+      <c r="BL30">
+        <v>33</v>
+      </c>
+      <c r="BM30">
+        <v>10</v>
+      </c>
+      <c r="BN30">
+        <v>10</v>
+      </c>
+      <c r="BO30">
+        <v>43</v>
+      </c>
+      <c r="BP30">
+        <v>43</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>1</v>
+      </c>
+      <c r="BT30">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV30">
         <v>81</v>
       </c>
     </row>
